--- a/OVP/metadata/drug_plate_layout_v2.0.xlsx
+++ b/OVP/metadata/drug_plate_layout_v2.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="109">
   <si>
     <t>A</t>
   </si>
@@ -44,87 +44,132 @@
   </si>
   <si>
     <t>2000x
+Capecitabine
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Docetaxel
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Olaparib
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Niraparib
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Vinblastine
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
 Alpelisib
  1</t>
   </si>
   <si>
     <t>2000x
+Etoposide
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Letrozole
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Paclitaxel
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Staurosporine (high)
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Erlotinib
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Dasatinib
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Osimertinib
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Capivasertib
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Lenvatinib
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Cediranib
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Everolimus
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Gemcitabine
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Fluorouracil
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Cobimetinib
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Carboplatin
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Cyclophosphamide
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Staurosporine (low)
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
 Palbociclib
  1</t>
   </si>
   <si>
     <t>2000x
-Niraparib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Paclitaxel
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Capecitabine
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Gemcitabine
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Staurosporine_high
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Capivasertib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Carboplatin
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Cobimetinib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Osimertinib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Olaparib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Everolimus
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Letrozole
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Fluorouracil
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Erlotinib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Staurosporine_low
+Trametinib
+ 1</t>
+  </si>
+  <si>
+    <t>2000x
+Abemaciclib
  1</t>
   </si>
   <si>
@@ -134,62 +179,12 @@
   </si>
   <si>
     <t>2000x
-Dasatinib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Trametinib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Cediranib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Cyclophosphamide
+DMSO
  1</t>
   </si>
   <si>
     <t>2000x
 Vinorelbine
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Etoposide
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Docetaxel
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-DMSO
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Lenvatinib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Abemaciclib
- 1</t>
-  </si>
-  <si>
-    <t>2000x
-Vinblastine
- 1</t>
-  </si>
-  <si>
-    <t>2000x_ab_drugs
-Durvalumab
  1</t>
   </si>
   <si>
@@ -199,87 +194,132 @@
   </si>
   <si>
     <t>1000x
+Capecitabine
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Docetaxel
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Olaparib
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Niraparib
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Vinblastine
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
 Alpelisib
  1</t>
   </si>
   <si>
     <t>1000x
+Etoposide
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Letrozole
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Paclitaxel
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Staurosporine (high)
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Erlotinib
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Dasatinib
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Osimertinib
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Capivasertib
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Lenvatinib
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Cediranib
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Everolimus
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Gemcitabine
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Fluorouracil
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Cobimetinib
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Carboplatin
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Cyclophosphamide
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Staurosporine (low)
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
 Palbociclib
  1</t>
   </si>
   <si>
     <t>1000x
-Niraparib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Paclitaxel
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Capecitabine
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Gemcitabine
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Staurosporine_high
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Capivasertib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Carboplatin
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Cobimetinib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Osimertinib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Olaparib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Everolimus
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Letrozole
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Fluorouracil
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Erlotinib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Staurosporine_low
+Trametinib
+ 1</t>
+  </si>
+  <si>
+    <t>1000x
+Abemaciclib
  1</t>
   </si>
   <si>
@@ -289,57 +329,12 @@
   </si>
   <si>
     <t>1000x
-Dasatinib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Trametinib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Cediranib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Cyclophosphamide
+DMSO
  1</t>
   </si>
   <si>
     <t>1000x
 Vinorelbine
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Etoposide
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Docetaxel
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-DMSO
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Lenvatinib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Abemaciclib
- 1</t>
-  </si>
-  <si>
-    <t>1000x
-Vinblastine
  1</t>
   </si>
   <si>
@@ -375,97 +370,97 @@
     <t>1000x_ab_drugs</t>
   </si>
   <si>
+    <t>Capecitabine</t>
+  </si>
+  <si>
+    <t>Docetaxel</t>
+  </si>
+  <si>
+    <t>Olaparib</t>
+  </si>
+  <si>
+    <t>Niraparib</t>
+  </si>
+  <si>
+    <t>Vinblastine</t>
+  </si>
+  <si>
     <t>Alpelisib</t>
   </si>
   <si>
+    <t>Etoposide</t>
+  </si>
+  <si>
+    <t>Letrozole</t>
+  </si>
+  <si>
+    <t>Paclitaxel</t>
+  </si>
+  <si>
+    <t>Staurosporine (high)</t>
+  </si>
+  <si>
+    <t>Erlotinib</t>
+  </si>
+  <si>
+    <t>Dasatinib</t>
+  </si>
+  <si>
+    <t>Osimertinib</t>
+  </si>
+  <si>
+    <t>Capivasertib</t>
+  </si>
+  <si>
+    <t>Lenvatinib</t>
+  </si>
+  <si>
+    <t>Cediranib</t>
+  </si>
+  <si>
+    <t>Everolimus</t>
+  </si>
+  <si>
+    <t>Gemcitabine</t>
+  </si>
+  <si>
+    <t>Fluorouracil</t>
+  </si>
+  <si>
+    <t>Cobimetinib</t>
+  </si>
+  <si>
+    <t>Carboplatin</t>
+  </si>
+  <si>
+    <t>Cyclophosphamide</t>
+  </si>
+  <si>
+    <t>Staurosporine (low)</t>
+  </si>
+  <si>
     <t>Palbociclib</t>
   </si>
   <si>
-    <t>Niraparib</t>
-  </si>
-  <si>
-    <t>Paclitaxel</t>
-  </si>
-  <si>
-    <t>Capecitabine</t>
-  </si>
-  <si>
-    <t>Gemcitabine</t>
-  </si>
-  <si>
-    <t>Staurosporine_high</t>
-  </si>
-  <si>
-    <t>Capivasertib</t>
-  </si>
-  <si>
-    <t>Carboplatin</t>
-  </si>
-  <si>
-    <t>Cobimetinib</t>
-  </si>
-  <si>
-    <t>Osimertinib</t>
-  </si>
-  <si>
-    <t>Olaparib</t>
-  </si>
-  <si>
-    <t>Everolimus</t>
-  </si>
-  <si>
-    <t>Letrozole</t>
-  </si>
-  <si>
-    <t>Fluorouracil</t>
-  </si>
-  <si>
-    <t>Erlotinib</t>
-  </si>
-  <si>
-    <t>Staurosporine_low</t>
+    <t>Trametinib</t>
+  </si>
+  <si>
+    <t>Abemaciclib</t>
   </si>
   <si>
     <t>Ribociclib</t>
   </si>
   <si>
-    <t>Dasatinib</t>
-  </si>
-  <si>
-    <t>Trametinib</t>
-  </si>
-  <si>
-    <t>Cediranib</t>
-  </si>
-  <si>
-    <t>Cyclophosphamide</t>
+    <t>DMSO</t>
   </si>
   <si>
     <t>Vinorelbine</t>
   </si>
   <si>
-    <t>Etoposide</t>
-  </si>
-  <si>
-    <t>Docetaxel</t>
-  </si>
-  <si>
-    <t>DMSO</t>
-  </si>
-  <si>
-    <t>Lenvatinib</t>
-  </si>
-  <si>
-    <t>Abemaciclib</t>
-  </si>
-  <si>
-    <t>Vinblastine</t>
+    <t>Pembrolizumab</t>
   </si>
   <si>
     <t>Durvalumab</t>
-  </si>
-  <si>
-    <t>Pembrolizumab</t>
   </si>
   <si>
     <t>Trastuzumab Deruxtecan</t>
@@ -946,26 +941,23 @@
       <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
@@ -988,25 +980,25 @@
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
@@ -1029,22 +1021,22 @@
         <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1">
@@ -1067,22 +1059,22 @@
         <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="60" customHeight="1">
@@ -1105,19 +1097,19 @@
         <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1">
@@ -1137,16 +1129,16 @@
         <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="60" customHeight="1">
@@ -1233,40 +1225,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
@@ -1274,40 +1263,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
@@ -1315,37 +1304,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1">
@@ -1353,37 +1342,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="60" customHeight="1">
@@ -1391,34 +1380,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1">
@@ -1426,28 +1415,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="60" customHeight="1">
@@ -1534,37 +1523,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>105</v>
@@ -1575,40 +1561,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
@@ -1616,37 +1602,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1">
@@ -1654,37 +1640,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="60" customHeight="1">
@@ -1692,34 +1678,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1">
@@ -1727,28 +1713,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="60" customHeight="1">
@@ -1835,40 +1821,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
@@ -1876,40 +1859,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
@@ -1917,37 +1900,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1">
@@ -1955,37 +1938,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="60" customHeight="1">
@@ -1993,34 +1976,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1">
@@ -2028,28 +2011,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="60" customHeight="1">
